--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDD11B5-32A8-5B4D-BE0D-90DA57E28F56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1D781-CE1A-A948-8809-D74F34C865FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8860" yWindow="620" windowWidth="19940" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -57,12 +57,6 @@
     <t>4 Patients</t>
   </si>
   <si>
-    <t>TEST #1</t>
-  </si>
-  <si>
-    <t>TEST #2</t>
-  </si>
-  <si>
     <t>DataID</t>
   </si>
   <si>
@@ -72,10 +66,28 @@
     <t>Test_1</t>
   </si>
   <si>
-    <t>Test_2</t>
-  </si>
-  <si>
     <t>Authors</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Place Holder</t>
+  </si>
+  <si>
+    <t>Future Datasets Will Appear Here</t>
+  </si>
+  <si>
+    <t>Check Back!</t>
+  </si>
+  <si>
+    <t>Will Be Coming in Late March</t>
+  </si>
+  <si>
+    <t>Coronary Artery</t>
+  </si>
+  <si>
+    <t>Multiple</t>
   </si>
 </sst>
 </file>
@@ -434,17 +446,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -459,13 +474,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
+      <c r="H1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -482,32 +500,33 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2077</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>2077</v>
-      </c>
-      <c r="G4" t="s">
         <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B1D781-CE1A-A948-8809-D74F34C865FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13FC23-53F3-6244-A922-62F48AE3A54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="620" windowWidth="19940" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="2800" yWindow="700" windowWidth="19940" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -33,12 +33,6 @@
     <t>Species</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Wirka et al</t>
-  </si>
-  <si>
     <t>Journal</t>
   </si>
   <si>
@@ -63,38 +57,50 @@
     <t>Wirka_2019</t>
   </si>
   <si>
-    <t>Test_1</t>
-  </si>
-  <si>
     <t>Authors</t>
   </si>
   <si>
     <t>Tissue</t>
   </si>
   <si>
-    <t>Place Holder</t>
-  </si>
-  <si>
-    <t>Future Datasets Will Appear Here</t>
-  </si>
-  <si>
-    <t>Check Back!</t>
-  </si>
-  <si>
-    <t>Will Be Coming in Late March</t>
-  </si>
-  <si>
     <t>Coronary Artery</t>
   </si>
   <si>
-    <t>Multiple</t>
+    <t>Slender_2021</t>
+  </si>
+  <si>
+    <t>Slender et al.</t>
+  </si>
+  <si>
+    <t>Wirka et al.</t>
+  </si>
+  <si>
+    <t>In Preparation</t>
+  </si>
+  <si>
+    <t>38 Patients</t>
+  </si>
+  <si>
+    <t>Patient#</t>
+  </si>
+  <si>
+    <t>Cell#</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>10x</t>
+  </si>
+  <si>
+    <t>CEL-Seq2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,7 +109,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -129,9 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,87 +474,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9798</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6191</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13FC23-53F3-6244-A922-62F48AE3A54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A09E0-4E63-4049-8ECF-43C43EDD5EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="700" windowWidth="19940" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
@@ -477,13 +477,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A09E0-4E63-4049-8ECF-43C43EDD5EDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BB72E-2B5A-6146-8065-EAAA6D1A0D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="700" windowWidth="19940" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="8860" yWindow="540" windowWidth="17400" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -94,13 +94,19 @@
   </si>
   <si>
     <t>CEL-Seq2</t>
+  </si>
+  <si>
+    <t>Carotid Endarterectomy</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,27 +116,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -154,12 +173,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,109 +513,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C12" activeCellId="1" sqref="A4:XFD4 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>2019</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>9798</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>2021</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>6191</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0BB72E-2B5A-6146-8065-EAAA6D1A0D0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C422364-5F8C-744F-A065-3843BA18A84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="540" windowWidth="17400" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="1640" yWindow="1060" windowWidth="19920" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Tissue</t>
   </si>
   <si>
-    <t>Coronary Artery</t>
-  </si>
-  <si>
     <t>Slender_2021</t>
   </si>
   <si>
@@ -96,10 +93,31 @@
     <t>CEL-Seq2</t>
   </si>
   <si>
-    <t>Carotid Endarterectomy</t>
+    <t>Pan et al.</t>
+  </si>
+  <si>
+    <t>Circulation</t>
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>3 Patients</t>
+  </si>
+  <si>
+    <t>Pan_2020</t>
+  </si>
+  <si>
+    <t>Carotid Plaque</t>
+  </si>
+  <si>
+    <t>Coronary Artery Explant</t>
+  </si>
+  <si>
+    <t>Carotid Artery</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1161/CIRCULATIONAHA.120.048378</t>
   </si>
 </sst>
 </file>
@@ -516,7 +534,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" activeCellId="1" sqref="A4:XFD4 C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,8 +542,10 @@
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="42" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="22.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -548,13 +568,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>8</v>
@@ -562,7 +582,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -577,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -586,7 +606,7 @@
         <v>9798</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>9</v>
@@ -594,10 +614,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
@@ -609,29 +629,52 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5">
         <v>6191</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6">
+        <v>8867</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H5" s="6"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C422364-5F8C-744F-A065-3843BA18A84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF331C5C-364A-D04E-8BC1-C0A4E6F0FF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="1060" windowWidth="19920" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="17820" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Slender_2021</t>
   </si>
   <si>
-    <t>Slender et al.</t>
-  </si>
-  <si>
     <t>Wirka et al.</t>
   </si>
   <si>
@@ -108,16 +105,25 @@
     <t>Pan_2020</t>
   </si>
   <si>
-    <t>Carotid Plaque</t>
-  </si>
-  <si>
-    <t>Coronary Artery Explant</t>
-  </si>
-  <si>
-    <t>Carotid Artery</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1161/CIRCULATIONAHA.120.048378</t>
+  </si>
+  <si>
+    <t>Coronary Artery</t>
+  </si>
+  <si>
+    <t>Carotid Artery Plaque</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Endarterectomy</t>
+  </si>
+  <si>
+    <t>Transplant</t>
+  </si>
+  <si>
+    <t>Slenders et al.</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,11 +550,11 @@
     <col min="3" max="3" width="10.83203125" style="2"/>
     <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="22.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="7" width="22.1640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -568,21 +574,24 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -597,168 +606,177 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>9798</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>2021</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="5">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5">
         <v>6191</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>2020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8867</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="6">
-        <v>8867</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H32" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF331C5C-364A-D04E-8BC1-C0A4E6F0FF6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2965AF-2EB4-E948-8B4B-0D51109BF957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1060" windowWidth="17820" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
@@ -540,7 +540,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Desktop/LOCAL_cache/PlaqView/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Google Drive/UVA/Grad School/Projects/PlaqView/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2965AF-2EB4-E948-8B4B-0D51109BF957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B780FA-73A6-0645-8D8D-8A6AE817AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="17820" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="23540" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -75,9 +75,6 @@
     <t>38 Patients</t>
   </si>
   <si>
-    <t>Patient#</t>
-  </si>
-  <si>
     <t>Cell#</t>
   </si>
   <si>
@@ -124,6 +121,27 @@
   </si>
   <si>
     <t>Slenders et al.</t>
+  </si>
+  <si>
+    <t>Alencar et al.</t>
+  </si>
+  <si>
+    <t>https://www.ahajournals.org/doi/10.1161/CIRCULATIONAHA.120.046672</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>SMC-Klf4 or Oct4 KO</t>
+  </si>
+  <si>
+    <t>Alencar_2020_mouse</t>
+  </si>
+  <si>
+    <t>Brachiocephalic Lesions</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -139,32 +157,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -173,6 +166,31 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -197,9 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -208,21 +229,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,244 +559,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="42" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="7" width="22.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="7">
+        <v>9798</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9">
+        <v>6191</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8867</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>9798</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="K4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5">
-        <v>6191</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C5" s="5">
         <v>2020</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6">
-        <v>8867</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I6" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I7" s="6"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I8" s="6"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I9" s="6"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I10" s="6"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I11" s="6"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I12" s="6"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I13" s="6"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I14" s="6"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I15" s="6"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I16" s="6"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="6"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="6"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="6"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="6"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="6"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="6"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="6"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="6"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="6"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="6"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="6"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="6"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="6"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="6"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="6"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="6"/>
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Google Drive/UVA/Grad School/Projects/PlaqView/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B780FA-73A6-0645-8D8D-8A6AE817AC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95A89E1-5023-6B4A-A4CF-82906C14FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="23540" windowHeight="16940" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
+    <workbookView xWindow="-38400" yWindow="8060" windowWidth="38400" windowHeight="13540" xr2:uid="{5C0CB6DF-74F5-E84F-91BF-65048458DE00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Year</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Carotid Artery Plaque</t>
   </si>
   <si>
-    <t>Procedure</t>
-  </si>
-  <si>
     <t>Endarterectomy</t>
   </si>
   <si>
@@ -132,16 +129,49 @@
     <t>Mouse</t>
   </si>
   <si>
-    <t>SMC-Klf4 or Oct4 KO</t>
-  </si>
-  <si>
-    <t>Alencar_2020_mouse</t>
-  </si>
-  <si>
     <t>Brachiocephalic Lesions</t>
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>Date Added</t>
+  </si>
+  <si>
+    <t>Alencar_2020_KLF4</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ApoE KO mice</t>
+  </si>
+  <si>
+    <t>SMC-Dual Lineage Tracing</t>
+  </si>
+  <si>
+    <t>Alencar_2020_dual</t>
+  </si>
+  <si>
+    <t>Ascending Aorta</t>
+  </si>
+  <si>
+    <t>SMC-TCF21 KO vs WT</t>
+  </si>
+  <si>
+    <t>Wirka_2019_mouse</t>
+  </si>
+  <si>
+    <t>Pan_2020_mouse</t>
+  </si>
+  <si>
+    <t>BCA and Ascd. Aorta</t>
+  </si>
+  <si>
+    <t>SMC-Klf4 KO vs WT</t>
+  </si>
+  <si>
+    <t>SMC-Ldlr KO vs WT</t>
   </si>
 </sst>
 </file>
@@ -215,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -243,11 +273,263 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -258,6 +540,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4C0CAFF2-404C-5B48-A412-7B6DC4A88A7B}" name="Table3" displayName="Table3" ref="A1:L8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:L8" xr:uid="{4C0CAFF2-404C-5B48-A412-7B6DC4A88A7B}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{1C281E25-A086-0540-A1AC-3F74DE6995A1}" name="Authors" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D0A11048-25A1-3E41-8264-7CCFC320E74A}" name="Journal" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E1A22F8B-5D29-3646-AEE9-474228E4301B}" name="Year" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EAC6D963-E5F1-AF4A-995B-3EDECD0DB8FA}" name="DOI" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{28DF3ED4-0E51-8249-B141-79974F9952AB}" name="Species" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{EFB7523A-6448-A64F-9BCA-17EDD979AB0B}" name="Tissue" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{22C91828-AF4F-494B-926D-2CB137E74619}" name="Notes"/>
+    <tableColumn id="8" xr3:uid="{788BD101-391E-2B47-85E2-8B55769D7D6B}" name="Population" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{7E3436EB-FE16-6348-9D96-9A0287FD8221}" name="Cell#" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{94E82EFE-0C19-C449-A257-B82502ECC06B}" name="Platform" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{EA6E3065-95E8-2F47-924C-BB1717EB2E43}" name="DataID" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{9F3FE2B3-5D72-9540-A126-220F516DE821}" name="Date Added" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -557,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE4BB4F-B325-9D4C-92D3-781BA71EF3E2}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,14 +871,18 @@
     <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="25.83203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="20.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -595,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>16</v>
@@ -609,8 +916,11 @@
       <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
@@ -630,7 +940,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>7</v>
@@ -644,54 +954,58 @@
       <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="11">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="11">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>2021</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="9">
-        <v>6191</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -700,24 +1014,27 @@
         <v>27</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8867</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6191</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -726,67 +1043,163 @@
         <v>2020</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8867</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="L5" s="11">
+        <v>44399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="11">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="11">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="11">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.2">
@@ -837,7 +1250,16 @@
     <row r="32" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I32" s="2"/>
     </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/Google Drive/UVA/Grad School/Projects/PlaqView/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A73AC71-A243-EE4B-8C4A-A86444E1C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD8DA0D-D8FE-D04D-993A-27812FD8EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
-  <si>
-    <t>Authors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Journal</t>
   </si>
@@ -173,6 +170,21 @@
   <si>
     <t>SMC-Tcf21 KO vs WT</t>
   </si>
+  <si>
+    <t>3-22-21</t>
+  </si>
+  <si>
+    <t>8-23-21</t>
+  </si>
+  <si>
+    <t>7-22-21</t>
+  </si>
+  <si>
+    <t>8-22-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authors </t>
+  </si>
 </sst>
 </file>
 
@@ -189,17 +201,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -234,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -251,12 +266,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -284,9 +305,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -303,7 +324,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:L8">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Authors"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Authors "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Journal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Year"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOI"/>
@@ -314,7 +335,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Cell#"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Platform"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="DataID"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date Added"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Date Added" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,13 +541,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
@@ -542,40 +563,40 @@
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -594,40 +615,40 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>2019</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="I2" s="7">
         <v>9798</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="8">
-        <v>44277</v>
+      <c r="L2" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -646,38 +667,40 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5">
         <v>2019</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5">
+        <v>27086</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="8">
-        <v>44431</v>
+      <c r="L3" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -696,40 +719,40 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>2021</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7">
+        <v>5633</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="7">
-        <v>6191</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="8">
-        <v>44399</v>
+      <c r="L4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -748,40 +771,40 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5">
         <v>2020</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
         <v>8867</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="L5" s="8">
-        <v>44399</v>
+      <c r="L5" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -800,38 +823,40 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>2020</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>45</v>
+      <c r="I6" s="5">
+        <v>27292</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="8">
-        <v>44431</v>
+      <c r="L6" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -850,40 +875,40 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
         <v>2020</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
         <v>5628</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
-      <c r="L7" s="8">
-        <v>44430</v>
+      <c r="L7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -902,40 +927,40 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
         <v>2020</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7">
         <v>2407</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
-      <c r="L8" s="8">
-        <v>44430</v>
+      <c r="L8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -964,7 +989,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1045,7 +1070,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1060,9 +1085,6 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1073,7 +1095,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1088,9 +1110,6 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
@@ -1101,7 +1120,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1116,9 +1135,6 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1129,7 +1145,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1144,9 +1160,6 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1157,7 +1170,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1172,9 +1185,6 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -1185,7 +1195,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1200,9 +1210,6 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -1213,7 +1220,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1228,9 +1235,6 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
@@ -1241,7 +1245,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1256,9 +1260,6 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -1269,7 +1270,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1284,9 +1285,6 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1297,7 +1295,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1312,9 +1310,6 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/My Drive/PlaqView_Master/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F069595-DD9D-2246-8C40-E56056E8A274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415AECE-2464-FB4A-8D0B-AF463D6640FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5020" yWindow="500" windowWidth="20580" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Journal</t>
   </si>
@@ -227,12 +227,36 @@
   <si>
     <t>12-18-21</t>
   </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>Cardiovascular Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/cvr/cvab347</t>
+  </si>
+  <si>
+    <t>Medial Aorta Layer and Plaque</t>
+  </si>
+  <si>
+    <t>Healthy vs Plaque Aortic SMC</t>
+  </si>
+  <si>
+    <t>ApoeE KO mice</t>
+  </si>
+  <si>
+    <t>10x Chromium (ATAC-seq), C1 96well Open App IFC plates (RNA-seq)</t>
+  </si>
+  <si>
+    <t>Wang_2021_mouse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +280,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -274,10 +318,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -288,8 +333,15 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -337,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:L11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:L12">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Authors "/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Journal"/>
@@ -556,7 +608,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1147,18 +1201,42 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5">
+        <v>28000</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="7">
+        <v>44550</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -28815,11 +28893,12 @@
     <hyperlink ref="D9" r:id="rId2" xr:uid="{39C72426-9689-4C4A-ADBC-FCF0559EE6A3}"/>
     <hyperlink ref="D10" r:id="rId3" xr:uid="{141F7345-D0DC-164A-BEA2-307B86915AAA}"/>
     <hyperlink ref="D11" r:id="rId4" xr:uid="{00CB8400-A1A4-5545-BA13-501386CB0FE1}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{B3A96F28-0F78-5844-A53D-AB968CA95826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/My Drive/PlaqView_Master/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2415AECE-2464-FB4A-8D0B-AF463D6640FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BE917-8215-E341-B391-B6F0ECFDB107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="500" windowWidth="20580" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
   <si>
     <t>Journal</t>
   </si>
@@ -183,9 +183,6 @@
     <t>BioRxiv</t>
   </si>
   <si>
-    <t>https://www.medrxiv.org/content/10.1101/2021.11.23.21266487v1</t>
-  </si>
-  <si>
     <t>18 Patients</t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Wang_2021_mouse</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/ehjopen/advance-article/doi/10.1093/ehjopen/oeab043/6472573</t>
   </si>
 </sst>
 </file>
@@ -322,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -336,9 +336,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -795,7 +792,7 @@
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1067,7 +1064,7 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>1287</v>
@@ -1076,10 +1073,10 @@
         <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1107,31 +1104,31 @@
         <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
       </c>
       <c r="I10">
         <v>48128</v>
       </c>
       <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1150,7 +1147,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
@@ -1159,7 +1156,7 @@
         <v>2020</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1168,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
@@ -1177,13 +1174,13 @@
         <v>51981</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1202,40 +1199,40 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="5">
         <v>2021</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5">
+        <v>188</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="5">
-        <v>28000</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7">
-        <v>44550</v>
+      <c r="L12" t="s">
+        <v>65</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -28889,16 +28886,15 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{0750066C-F2AD-7240-A41A-42F8A4455A65}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{39C72426-9689-4C4A-ADBC-FCF0559EE6A3}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{141F7345-D0DC-164A-BEA2-307B86915AAA}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{00CB8400-A1A4-5545-BA13-501386CB0FE1}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{B3A96F28-0F78-5844-A53D-AB968CA95826}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{39C72426-9689-4C4A-ADBC-FCF0559EE6A3}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{141F7345-D0DC-164A-BEA2-307B86915AAA}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00CB8400-A1A4-5545-BA13-501386CB0FE1}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{B3A96F28-0F78-5844-A53D-AB968CA95826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/My Drive/PlaqView_Master/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334BE917-8215-E341-B391-B6F0ECFDB107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19010CE3-4FF5-964D-8C52-E885C1457778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="500" windowWidth="20580" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,13 +243,13 @@
     <t>ApoeE KO mice</t>
   </si>
   <si>
-    <t>10x Chromium (ATAC-seq), C1 96well Open App IFC plates (RNA-seq)</t>
-  </si>
-  <si>
     <t>Wang_2021_mouse</t>
   </si>
   <si>
     <t>https://academic.oup.com/ehjopen/advance-article/doi/10.1093/ehjopen/oeab043/6472573</t>
+  </si>
+  <si>
+    <t>NexteraXT DNA Library</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1226,10 +1226,10 @@
         <v>188</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" t="s">
         <v>65</v>
@@ -1256,7 +1256,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>

--- a/Available_datasets.xlsx
+++ b/Available_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wm5wt/My Drive/PlaqView_Master/PlaqView/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19010CE3-4FF5-964D-8C52-E885C1457778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EFD04F-A7A1-E243-831B-6C7A1484BE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="500" windowWidth="20580" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="67">
   <si>
     <t>Journal</t>
   </si>
@@ -225,31 +225,7 @@
     <t>12-18-21</t>
   </si>
   <si>
-    <t>Wang et al.</t>
-  </si>
-  <si>
-    <t>Cardiovascular Research</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/cvr/cvab347</t>
-  </si>
-  <si>
-    <t>Medial Aorta Layer and Plaque</t>
-  </si>
-  <si>
-    <t>Healthy vs Plaque Aortic SMC</t>
-  </si>
-  <si>
-    <t>ApoeE KO mice</t>
-  </si>
-  <si>
-    <t>Wang_2021_mouse</t>
-  </si>
-  <si>
     <t>https://academic.oup.com/ehjopen/advance-article/doi/10.1093/ehjopen/oeab043/6472573</t>
-  </si>
-  <si>
-    <t>NexteraXT DNA Library</t>
   </si>
 </sst>
 </file>
@@ -606,7 +582,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -792,7 +768,7 @@
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1198,42 +1174,17 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="5">
-        <v>188</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -28889,12 +28840,11 @@
     <hyperlink ref="D9" r:id="rId1" xr:uid="{39C72426-9689-4C4A-ADBC-FCF0559EE6A3}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{141F7345-D0DC-164A-BEA2-307B86915AAA}"/>
     <hyperlink ref="D11" r:id="rId3" xr:uid="{00CB8400-A1A4-5545-BA13-501386CB0FE1}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{B3A96F28-0F78-5844-A53D-AB968CA95826}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>